--- a/Recycling/Met_rec_tech/metrec_tech_Min_hist_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_hist_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.464719215390088E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0003566536499805421</v>
+      </c>
+      <c r="E7">
         <v>24.27320012022722</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.462137834953612E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0003566536499805421</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.293709372181976</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.915556360218856</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>246596.1924158451</v>
+      </c>
+      <c r="E7">
         <v>1541695.660510203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56483.93591283837</v>
-      </c>
-      <c r="F7">
-        <v>246596.1924158451</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>82169.06362471258</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.135829350166047</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231255.2108900015</v>
+      </c>
+      <c r="E7">
         <v>1540312.598571296</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51544.02541416809</v>
-      </c>
-      <c r="F7">
-        <v>231255.2108900015</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>82095.34939734204</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.674409063322437E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.003653381817759072</v>
+      </c>
+      <c r="E7">
         <v>47.02995580561954</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.228529085082446E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.003653381817759072</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.506595516770476</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.860754664787971E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.03217202551496984</v>
+      </c>
+      <c r="E7">
         <v>95.50555834750607</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004346587146582494</v>
-      </c>
-      <c r="F7">
-        <v>0.03217202551496984</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5.090240896035779</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.956576748189034E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.2032628489683213</v>
+      </c>
+      <c r="E7">
         <v>164.3123803736658</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.003140207431596583</v>
-      </c>
-      <c r="F7">
-        <v>0.2032628489683213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8.757496555956847</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.32873149731781E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.216042236010131</v>
+      </c>
+      <c r="E7">
         <v>308.5240651604096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02108896505937519</v>
-      </c>
-      <c r="F7">
-        <v>1.216042236010131</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16.44366925929535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.848890781984155E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.114013697622344</v>
+      </c>
+      <c r="E7">
         <v>547.9120926823758</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1171352905191741</v>
-      </c>
-      <c r="F7">
-        <v>6.114013697622344</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29.20253637444133</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.49962380142482E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>22.75652587300004</v>
+      </c>
+      <c r="E7">
         <v>790.382023735286</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.475133859351968</v>
-      </c>
-      <c r="F7">
-        <v>22.75652587300004</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42.12566232082483</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0003237811813854203</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91.17202177996209</v>
+      </c>
+      <c r="E7">
         <v>1317.134077707044</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.051294923192909</v>
-      </c>
-      <c r="F7">
-        <v>91.17202177996209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70.20041413204129</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001292644451210683</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>340.6999118462496</v>
+      </c>
+      <c r="E7">
         <v>2164.108057809874</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.189466073710966</v>
-      </c>
-      <c r="F7">
-        <v>340.6999118462496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>115.3423060385891</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.004827373657006623</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1196.265444977904</v>
+      </c>
+      <c r="E7">
         <v>3508.975629749496</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30.58351641254085</v>
-      </c>
-      <c r="F7">
-        <v>1196.265444977904</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>187.0208557783925</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01498304176136356</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3476.763793163669</v>
+      </c>
+      <c r="E7">
         <v>4977.724559484172</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94.92410080030781</v>
-      </c>
-      <c r="F7">
-        <v>3476.763793163669</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>265.3020155088142</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.04544095456011241</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9646.768706683495</v>
+      </c>
+      <c r="E7">
         <v>7349.714104397569</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>287.8882552573066</v>
-      </c>
-      <c r="F7">
-        <v>9646.768706683495</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>391.7239578061941</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1222591468665081</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>22317.98008993233</v>
+      </c>
+      <c r="E7">
         <v>10676.33333693652</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>774.56498925622</v>
-      </c>
-      <c r="F7">
-        <v>22317.98008993233</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>569.0256097309493</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2257568922226827</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31916.27187448975</v>
+      </c>
+      <c r="E7">
         <v>12955.95341841746</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1430.268321681559</v>
-      </c>
-      <c r="F7">
-        <v>31916.27187448975</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>690.524458247777</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3259512244190172</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35863.59911130611</v>
+      </c>
+      <c r="E7">
         <v>17651.33703685317</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2065.043091751935</v>
-      </c>
-      <c r="F7">
-        <v>35863.59911130611</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>940.7783087113611</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2623311165273856</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33820.78745420165</v>
+      </c>
+      <c r="E7">
         <v>22830.37097967124</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1661.981975683731</v>
-      </c>
-      <c r="F7">
-        <v>33820.78745420165</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1216.809681479922</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1406709073791153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34594.99256050501</v>
+      </c>
+      <c r="E7">
         <v>28821.75692456248</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>891.2115179548623</v>
-      </c>
-      <c r="F7">
-        <v>34594.99256050501</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1536.137669173067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1474887939420882</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36704.94955905423</v>
+      </c>
+      <c r="E7">
         <v>35554.76630265493</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>934.4058013090994</v>
-      </c>
-      <c r="F7">
-        <v>36704.94955905423</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1894.992591156292</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2442321584243083</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38976.28604158276</v>
+      </c>
+      <c r="E7">
         <v>42907.92408688936</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1547.317186602832</v>
-      </c>
-      <c r="F7">
-        <v>38976.28604158276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2286.900089692907</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3455761732122847</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40482.34164767549</v>
+      </c>
+      <c r="E7">
         <v>50723.55885247488</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2189.375697048195</v>
-      </c>
-      <c r="F7">
-        <v>40482.34164767549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2703.456616879592</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0004309321198885123</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.296775536446228E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4898704430553676</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>42706.31076258987</v>
+      </c>
+      <c r="E7">
         <v>58850.59078861915</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3103.542795668435</v>
-      </c>
-      <c r="F7">
-        <v>42706.31076258987</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3136.609943665316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6498379626357362</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45744.42169450947</v>
+      </c>
+      <c r="E7">
         <v>67204.51353572939</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4117.006763484288</v>
-      </c>
-      <c r="F7">
-        <v>45744.42169450947</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3581.856062796294</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7440955242557949</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45107.87239254595</v>
+      </c>
+      <c r="E7">
         <v>75841.07052509037</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4714.169504062502</v>
-      </c>
-      <c r="F7">
-        <v>45107.87239254595</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4042.1659792959</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.9482027291584565</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45086.79337121163</v>
+      </c>
+      <c r="E7">
         <v>85042.62646011183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6007.277619279161</v>
-      </c>
-      <c r="F7">
-        <v>45086.79337121163</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4532.589124692129</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.562333613863183</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45854.17984863283</v>
+      </c>
+      <c r="E7">
         <v>95409.43916020256</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9898.064479035489</v>
-      </c>
-      <c r="F7">
-        <v>45854.17984863283</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5085.117950035862</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.444612692900417</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>46234.85066845149</v>
+      </c>
+      <c r="E7">
         <v>107940.7461173042</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15487.6870380873</v>
-      </c>
-      <c r="F7">
-        <v>46234.85066845149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5753.009665005166</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.438123456356379</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48600.76612541257</v>
+      </c>
+      <c r="E7">
         <v>124085.9104027846</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21782.01080481903</v>
-      </c>
-      <c r="F7">
-        <v>48600.76612541257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6613.512204764564</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.193478451389462</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49987.06617685158</v>
+      </c>
+      <c r="E7">
         <v>145742.5446797409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26567.51396435978</v>
-      </c>
-      <c r="F7">
-        <v>49987.06617685158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7767.764243854722</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.790512201977604</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48805.91359791016</v>
+      </c>
+      <c r="E7">
         <v>175181.2036972554</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24014.54711773917</v>
-      </c>
-      <c r="F7">
-        <v>48805.91359791016</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9336.781468068648</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.498551873715289</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45778.480501798</v>
+      </c>
+      <c r="E7">
         <v>214877.9174964682</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22164.85117007595</v>
-      </c>
-      <c r="F7">
-        <v>45778.480501798</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11452.53095443618</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01486744235693814</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0007924027084306057</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.36829943802935</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45114.85849076889</v>
+      </c>
+      <c r="E7">
         <v>267250.2915197843</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21339.64521180247</v>
-      </c>
-      <c r="F7">
-        <v>45114.85849076889</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14243.86587450397</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.040020713743216</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53173.51830291784</v>
+      </c>
+      <c r="E7">
         <v>334338.5078507529</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19259.85639381431</v>
-      </c>
-      <c r="F7">
-        <v>53173.51830291784</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>17819.5235463583</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.682911918711581</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>71402.52374192148</v>
+      </c>
+      <c r="E7">
         <v>417473.0037475794</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16997.41651036742</v>
-      </c>
-      <c r="F7">
-        <v>71402.52374192148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>22250.41341504619</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.570413128020865</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105538.3901892378</v>
+      </c>
+      <c r="E7">
         <v>516965.8224061207</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16284.68763211149</v>
-      </c>
-      <c r="F7">
-        <v>105538.3901892378</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27553.16671192593</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.635615680636077</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>155971.6657408079</v>
+      </c>
+      <c r="E7">
         <v>631856.9007188836</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23033.21013425992</v>
-      </c>
-      <c r="F7">
-        <v>155971.6657408079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33676.6141377746</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.378939839311345</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>214285.254959597</v>
+      </c>
+      <c r="E7">
         <v>759740.5716043619</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34077.92861007914</v>
-      </c>
-      <c r="F7">
-        <v>214285.254959597</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40492.5388100106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.285312753061504</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>280604.471689683</v>
+      </c>
+      <c r="E7">
         <v>896701.8364276427</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46155.63202371015</v>
-      </c>
-      <c r="F7">
-        <v>280604.471689683</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47792.27971974431</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.33010346103636</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>388105.1327128012</v>
+      </c>
+      <c r="E7">
         <v>1037393.86033153</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65445.70841026513</v>
-      </c>
-      <c r="F7">
-        <v>388105.1327128012</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55290.86206629013</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.77828154694169</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>508118.5873485069</v>
+      </c>
+      <c r="E7">
         <v>1175288.898502909</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>87291.41967617981</v>
-      </c>
-      <c r="F7">
-        <v>508118.5873485069</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62640.37108760143</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.0688013240448</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>551442.7967426812</v>
+      </c>
+      <c r="E7">
         <v>1303124.370323093</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95467.42501325477</v>
-      </c>
-      <c r="F7">
-        <v>551442.7967426812</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69453.72685329881</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1154244263116016</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.006151873727338136</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.15398927920113</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>551810.7796131093</v>
+      </c>
+      <c r="E7">
         <v>1413535.427084832</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>96007.12784336267</v>
-      </c>
-      <c r="F7">
-        <v>551810.7796131093</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75338.39876378776</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.06800967012079</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>545199.2984587246</v>
+      </c>
+      <c r="E7">
         <v>1499818.4812667</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95462.40954055714</v>
-      </c>
-      <c r="F7">
-        <v>545199.2984587246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>79937.10001878002</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.7783339452689</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>529619.9316970888</v>
+      </c>
+      <c r="E7">
         <v>1556721.339270031</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93627.18755137807</v>
-      </c>
-      <c r="F7">
-        <v>529619.9316970888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>82969.89999316433</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.47238718994194</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>509516.9711794145</v>
+      </c>
+      <c r="E7">
         <v>1581124.937559384</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91688.88149145154</v>
-      </c>
-      <c r="F7">
-        <v>509516.9711794145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>84270.55930736783</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.52152721679246</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>495263.0666051162</v>
+      </c>
+      <c r="E7">
         <v>1572485.922172356</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92000.20498212731</v>
-      </c>
-      <c r="F7">
-        <v>495263.0666051162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>83810.11836355884</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.49865912701227</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>471606.9988826714</v>
+      </c>
+      <c r="E7">
         <v>1532953.276571708</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91855.32566496471</v>
-      </c>
-      <c r="F7">
-        <v>471606.9988826714</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>81703.11335938187</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.47142609664215</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>410924.6631298686</v>
+      </c>
+      <c r="E7">
         <v>1467144.492437185</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85347.35663749369</v>
-      </c>
-      <c r="F7">
-        <v>410924.6631298686</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>78195.6466724581</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.57513004652382</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>291157.0885626704</v>
+      </c>
+      <c r="E7">
         <v>1381642.06595644</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66998.05863861086</v>
-      </c>
-      <c r="F7">
-        <v>291157.0885626704</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73638.55119536589</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.873700029083218</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>156186.5954081235</v>
+      </c>
+      <c r="E7">
         <v>1284321.030203061</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43547.88599163553</v>
-      </c>
-      <c r="F7">
-        <v>156186.5954081235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68451.54925738557</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.277896438827441</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>106709.6253161162</v>
+      </c>
+      <c r="E7">
         <v>1183622.598022417</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33437.77462229054</v>
-      </c>
-      <c r="F7">
-        <v>106709.6253161162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63084.53935218683</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.983550862398254E-16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.695994188210438E-10</v>
+      </c>
+      <c r="E7">
         <v>0.4741270627179542</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.25666593608756E-12</v>
-      </c>
-      <c r="F7">
-        <v>2.695994188210438E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.02526995293596199</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.882541525134725</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>103593.1453765103</v>
+      </c>
+      <c r="E7">
         <v>1087849.411775633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30933.02890530009</v>
-      </c>
-      <c r="F7">
-        <v>103593.1453765103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57980.03446459503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.439271960528298</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>103452.3405681629</v>
+      </c>
+      <c r="E7">
         <v>1004511.574294087</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28124.7229883459</v>
-      </c>
-      <c r="F7">
-        <v>103452.3405681629</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53538.30692668331</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.835478532855883</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105238.9888709771</v>
+      </c>
+      <c r="E7">
         <v>939732.4094789661</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24299.42842507935</v>
-      </c>
-      <c r="F7">
-        <v>105238.9888709771</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50085.7167355117</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.447439022175841</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117678.8466915205</v>
+      </c>
+      <c r="E7">
         <v>897742.9347291342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21841.02897502388</v>
-      </c>
-      <c r="F7">
-        <v>117678.8466915205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47847.76802055883</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.961883111785768</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>155753.8005201897</v>
+      </c>
+      <c r="E7">
         <v>880536.0070677102</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25100.25653348802</v>
-      </c>
-      <c r="F7">
-        <v>155753.8005201897</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46930.67577595235</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.368765007140668</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213260.4047893511</v>
+      </c>
+      <c r="E7">
         <v>887772.2417444384</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34013.46661297745</v>
-      </c>
-      <c r="F7">
-        <v>213260.4047893511</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47316.35152427654</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.347601589182925</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>283295.7651241483</v>
+      </c>
+      <c r="E7">
         <v>916996.0523808238</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46550.25895280079</v>
-      </c>
-      <c r="F7">
-        <v>283295.7651241483</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48873.91779176089</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.715020588425775</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>365734.9122275951</v>
+      </c>
+      <c r="E7">
         <v>964134.5767645286</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61548.89029214509</v>
-      </c>
-      <c r="F7">
-        <v>365734.9122275951</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51386.29978029025</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.19983010039076</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>452179.5753002855</v>
+      </c>
+      <c r="E7">
         <v>1024160.158487707</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77291.2417011598</v>
-      </c>
-      <c r="F7">
-        <v>452179.5753002855</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54585.53421420566</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.11300052462486</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>517647.1528561079</v>
+      </c>
+      <c r="E7">
         <v>1091752.938756828</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89412.01030680227</v>
-      </c>
-      <c r="F7">
-        <v>517647.1528561079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58188.08405900875</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.119802651183925E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.443352995944197E-08</v>
+      </c>
+      <c r="E7">
         <v>1.514353279963156</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.342987383620762E-10</v>
-      </c>
-      <c r="F7">
-        <v>2.443352995944197E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.08071177353538463</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.96082844865277</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>544625.0527146276</v>
+      </c>
+      <c r="E7">
         <v>1161829.416853235</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94783.36978130302</v>
-      </c>
-      <c r="F7">
-        <v>544625.0527146276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61923.00965735535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.07001846304069</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>544355.5765635383</v>
+      </c>
+      <c r="E7">
         <v>1229883.858672645</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95475.13611935555</v>
-      </c>
-      <c r="F7">
-        <v>544355.5765635383</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65550.16507008632</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.91433539051632</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>532704.8920664091</v>
+      </c>
+      <c r="E7">
         <v>1292168.871236447</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94488.8159912683</v>
-      </c>
-      <c r="F7">
-        <v>532704.8920664091</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68869.82230939342</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.6793443999588</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>514970.2134019452</v>
+      </c>
+      <c r="E7">
         <v>1345777.471898503</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93000.04563140942</v>
-      </c>
-      <c r="F7">
-        <v>514970.2134019452</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71727.04545107015</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.41879989144298</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>491892.5132546588</v>
+      </c>
+      <c r="E7">
         <v>1388676.643926492</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91349.38259627737</v>
-      </c>
-      <c r="F7">
-        <v>491892.5132546588</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>74013.47907484305</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.013747952342</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>459449.2042147778</v>
+      </c>
+      <c r="E7">
         <v>1419709.703446959</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88783.20199630532</v>
-      </c>
-      <c r="F7">
-        <v>459449.2042147778</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75667.47441745356</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.121116942129</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>408273.2825074848</v>
+      </c>
+      <c r="E7">
         <v>1438563.562986559</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83127.99544075561</v>
-      </c>
-      <c r="F7">
-        <v>408273.2825074848</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>76672.34458979884</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.53767145035484</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>336098.5972259566</v>
+      </c>
+      <c r="E7">
         <v>1445696.864866344</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73096.17801229737</v>
-      </c>
-      <c r="F7">
-        <v>336098.5972259566</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77052.5342413805</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.648970508432544</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>261104.5441953431</v>
+      </c>
+      <c r="E7">
         <v>1442236.281670684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61130.43424356666</v>
-      </c>
-      <c r="F7">
-        <v>261104.5441953431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>76868.09259828166</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.139441868228694</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>209078.7905111741</v>
+      </c>
+      <c r="E7">
         <v>1429856.099183342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51566.91229082392</v>
-      </c>
-      <c r="F7">
-        <v>209078.7905111741</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>76208.25549259034</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.091688011547124E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.054987172894229E-06</v>
+      </c>
+      <c r="E7">
         <v>4.490245955119203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.916319429730802E-09</v>
-      </c>
-      <c r="F7">
-        <v>1.054987172894229E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2393204541126465</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.148304670166475</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>183317.2651815672</v>
+      </c>
+      <c r="E7">
         <v>1410654.178584058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45287.62609551997</v>
-      </c>
-      <c r="F7">
-        <v>183317.2651815672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75184.83441419342</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.556871824427011</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>177069.8381925922</v>
+      </c>
+      <c r="E7">
         <v>1387028.758214993</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41540.641206887</v>
-      </c>
-      <c r="F7">
-        <v>177069.8381925922</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73925.65030983921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.12107040059728</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>180501.9109009518</v>
+      </c>
+      <c r="E7">
         <v>1361550.956717924</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38779.64921718263</v>
-      </c>
-      <c r="F7">
-        <v>180501.9109009518</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72567.73827450427</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.892398781809863</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>193438.2178032795</v>
+      </c>
+      <c r="E7">
         <v>1336822.847124802</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37330.91483215806</v>
-      </c>
-      <c r="F7">
-        <v>193438.2178032795</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71249.78320560067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.210706573813637</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>223408.1980419539</v>
+      </c>
+      <c r="E7">
         <v>1315313.461288744</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39347.53344771879</v>
-      </c>
-      <c r="F7">
-        <v>223408.1980419539</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70103.37919178473</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.247687033735689</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>272186.2660655139</v>
+      </c>
+      <c r="E7">
         <v>1299175.487828671</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45917.25669039316</v>
-      </c>
-      <c r="F7">
-        <v>272186.2660655139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69243.25990755719</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.889842537104629</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>335045.8506806465</v>
+      </c>
+      <c r="E7">
         <v>1290060.804104212</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56321.02763452401</v>
-      </c>
-      <c r="F7">
-        <v>335045.8506806465</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68757.46686418423</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.87404007487119</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>405467.9512538065</v>
+      </c>
+      <c r="E7">
         <v>1288965.935451478</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68891.7839657494</v>
-      </c>
-      <c r="F7">
-        <v>405467.9512538065</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68699.11271926991</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.91925095002554</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>476371.5456139264</v>
+      </c>
+      <c r="E7">
         <v>1296141.826576161</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81849.08638558656</v>
-      </c>
-      <c r="F7">
-        <v>476371.5456139264</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69081.57228602574</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.71558068004828</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>537705.0852249549</v>
+      </c>
+      <c r="E7">
         <v>1311092.006420501</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93229.61826149524</v>
-      </c>
-      <c r="F7">
-        <v>537705.0852249549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69878.38472462592</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.206527071553825E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.539957750807418E-05</v>
+      </c>
+      <c r="E7">
         <v>11.65681248014648</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.031474675215688E-07</v>
-      </c>
-      <c r="F7">
-        <v>2.539957750807418E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.6212830397573534</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.90642579879819</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>576696.0193316311</v>
+      </c>
+      <c r="E7">
         <v>1332662.524524631</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100774.1411888266</v>
-      </c>
-      <c r="F7">
-        <v>576696.0193316311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71028.0469568785</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.38937007946044</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>589339.7698857978</v>
+      </c>
+      <c r="E7">
         <v>1359205.092904286</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103833.8037265584</v>
-      </c>
-      <c r="F7">
-        <v>589339.7698857978</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72442.70877750612</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.36936172728609</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>582280.8373561763</v>
+      </c>
+      <c r="E7">
         <v>1388780.405660416</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103707.042093714</v>
-      </c>
-      <c r="F7">
-        <v>582280.8373561763</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>74019.00935214419</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.10960331673752</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>564031.2528836832</v>
+      </c>
+      <c r="E7">
         <v>1419366.409981701</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>102061.3593318717</v>
-      </c>
-      <c r="F7">
-        <v>564031.2528836832</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75649.17761393311</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.74925325626348</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>538931.0757617492</v>
+      </c>
+      <c r="E7">
         <v>1449044.012844236</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>99778.38461895054</v>
-      </c>
-      <c r="F7">
-        <v>538931.0757617492</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77230.93003128996</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.2227108520578</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>505000.6320583594</v>
+      </c>
+      <c r="E7">
         <v>1476144.384767703</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>96442.50896375865</v>
-      </c>
-      <c r="F7">
-        <v>505000.6320583594</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>78675.3215813679</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.37604758337552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>458597.8377865276</v>
+      </c>
+      <c r="E7">
         <v>1499352.52611611</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91078.52808855608</v>
-      </c>
-      <c r="F7">
-        <v>458597.8377865276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>79912.26561118859</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.11409914894023</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>399512.1693399936</v>
+      </c>
+      <c r="E7">
         <v>1517767.999479185</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83083.53466178582</v>
-      </c>
-      <c r="F7">
-        <v>399512.1693399936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>80893.77074297896</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.56479677502955</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>335675.585246505</v>
+      </c>
+      <c r="E7">
         <v>1530926.64776096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73268.02876828358</v>
-      </c>
-      <c r="F7">
-        <v>335675.585246505</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>81595.09840159256</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.07482364975044</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>281477.1402615285</v>
+      </c>
+      <c r="E7">
         <v>1538788.231419419</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63828.39952701318</v>
-      </c>
-      <c r="F7">
-        <v>281477.1402615285</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>82014.10390596633</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
